--- a/data/CS1_3/Market Data/CS1_market_data_base.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C0D77-32EE-4AB0-89A9-F70187CFBA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EDC8F8-E1E3-4A89-9004-76371F22BEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -992,15 +992,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1008,39 +1008,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>1.2500000000000001E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>1.2500000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>1.2500000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>1.2500000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
     </row>
   </sheetData>
@@ -1053,12 +1053,12 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>160.20411438107772</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>152.19390866202383</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>168.2143201001316</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>176.22452581918552</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1657,9 +1657,9 @@
       <selection activeCell="B3" sqref="B3:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>33.44</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>36.960000000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>31.680000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2232,9 +2232,9 @@
       <selection activeCell="B3" sqref="B3:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>176.22452581918552</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>167.41329952822622</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>185.03575211014481</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>158.60207323726698</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2806,9 +2806,9 @@
       <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>136.97451779582144</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>151.39288809011845</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>129.76533264867297</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3380,9 +3380,9 @@
       <selection activeCell="B3" sqref="B3:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>160.20411438107772</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>152.19390866202383</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>168.2143201001316</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>176.22452581918552</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3981,9 +3981,9 @@
       <selection activeCell="B3" sqref="B3:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>33.44</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>36.960000000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>31.680000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>38.720000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4582,9 +4582,9 @@
       <selection activeCell="B3" sqref="B3:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>176.22452581918552</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>167.41329952822622</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>185.03575211014481</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>158.60207323726698</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5156,9 +5156,9 @@
       <selection activeCell="B3" sqref="B3:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>136.97451779582144</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>151.39288809011845</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>129.76533264867297</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>

--- a/data/CS1_3/Market Data/CS1_market_data_base.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EDC8F8-E1E3-4A89-9004-76371F22BEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D0249-0E75-4272-85EF-B7116828A937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1037,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/data/CS1_3/Market Data/CS1_market_data_base.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D0249-0E75-4272-85EF-B7116828A937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82672FB4-21EA-41CD-9694-6BE7A71118DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Tertiary Reserve Up, Summer" sheetId="8" r:id="rId8"/>
     <sheet name="Tertiary Reserve Down, Summer" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Energy, Winter'!$A$1:$Y$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,60 +47,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={F492142A-F33F-4A48-8C2B-D25BD1C79A52}</author>
-    <author>tc={42A1CB46-26A8-48FA-9A3E-D5F88EEA069C}</author>
-    <author>tc={E6D2BEF3-43D0-4508-B5EC-D2CF7D6EDDDF}</author>
-    <author>tc={91D80F1D-A108-4855-BE75-5882C64785C8}</author>
-    <author>tc={D2B5D017-7110-4333-A6C1-A2134F4EE3D6}</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F492142A-F33F-4A48-8C2B-D25BD1C79A52}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    January 15th, 2020</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{42A1CB46-26A8-48FA-9A3E-D5F88EEA069C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    January 14th, 2020</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{E6D2BEF3-43D0-4508-B5EC-D2CF7D6EDDDF}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    January 16th, 2020</t>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{91D80F1D-A108-4855-BE75-5882C64785C8}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    January 13th, 2020</t>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{D2B5D017-7110-4333-A6C1-A2134F4EE3D6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    January 17th, 2020</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={BC5ED841-48B8-4728-8352-7D400619558B}</author>
@@ -151,7 +100,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={27BBEE63-A8A7-4699-A7B1-99BA633DB036}</author>
@@ -206,7 +155,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B9D3449D-E35E-46A4-9D9F-D2E16D9500E6}</author>
@@ -261,115 +210,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={88BFEBBC-FE07-4C46-84FE-86AA3FD53D99}</author>
-    <author>tc={E0C33859-F9C0-451D-98A5-FABAC43C6D15}</author>
-    <author>tc={573E4A7D-65BD-4B7B-8EA7-63038693DCE5}</author>
-    <author>tc={82E46766-03E0-4C14-91E7-11DC23E1FE80}</author>
-    <author>tc={1E55EEEE-BA79-4195-8A1D-45154C4DDDB5}</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{88BFEBBC-FE07-4C46-84FE-86AA3FD53D99}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    July 15th, 2020</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{E0C33859-F9C0-451D-98A5-FABAC43C6D15}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    July 14th, 2020</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{573E4A7D-65BD-4B7B-8EA7-63038693DCE5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    July 16th, 2020</t>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{82E46766-03E0-4C14-91E7-11DC23E1FE80}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    July 13th, 2020</t>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{1E55EEEE-BA79-4195-8A1D-45154C4DDDB5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    July 17th, 2020</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={97A80AF1-EB1F-487E-9F7D-386A15F551BB}</author>
-    <author>tc={D9D923E9-03D3-4E55-A423-85BC7113D1FE}</author>
-    <author>tc={55C4C18D-BEA0-4078-A744-9715D0BAE80C}</author>
-    <author>tc={AB80A1C6-22EB-4F45-A615-0442EDDE4748}</author>
-    <author>tc={062A73CD-E3CE-45A0-B30F-C084FCAF6E8B}</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{97A80AF1-EB1F-487E-9F7D-386A15F551BB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    July 15th, 2020</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{D9D923E9-03D3-4E55-A423-85BC7113D1FE}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    July 14th, 2020</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{55C4C18D-BEA0-4078-A744-9715D0BAE80C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    July 16th, 2020</t>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{AB80A1C6-22EB-4F45-A615-0442EDDE4748}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    July 13th, 2020</t>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{062A73CD-E3CE-45A0-B30F-C084FCAF6E8B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    July 17th, 2020</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={54B6800D-CAED-4CE6-9DA8-8CFBEE3BBD62}</author>
@@ -423,7 +264,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E4229DCD-9BFC-4BD1-AD9E-DABD22B6781C}</author>
@@ -827,26 +668,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{F492142A-F33F-4A48-8C2B-D25BD1C79A52}">
-    <text>January 15th, 2020</text>
-  </threadedComment>
-  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{42A1CB46-26A8-48FA-9A3E-D5F88EEA069C}">
-    <text>January 14th, 2020</text>
-  </threadedComment>
-  <threadedComment ref="A4" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{E6D2BEF3-43D0-4508-B5EC-D2CF7D6EDDDF}">
-    <text>January 16th, 2020</text>
-  </threadedComment>
-  <threadedComment ref="A5" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{91D80F1D-A108-4855-BE75-5882C64785C8}">
-    <text>January 13th, 2020</text>
-  </threadedComment>
-  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{D2B5D017-7110-4333-A6C1-A2134F4EE3D6}">
-    <text>January 17th, 2020</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{BC5ED841-48B8-4728-8352-7D400619558B}">
     <text>January 15th, 2020</text>
   </threadedComment>
@@ -865,7 +686,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2023-02-02T10:25:11.16" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{27BBEE63-A8A7-4699-A7B1-99BA633DB036}">
     <text>January 15th, 2020</text>
@@ -886,7 +707,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2023-02-02T10:25:11.16" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{B9D3449D-E35E-46A4-9D9F-D2E16D9500E6}">
     <text>January 15th, 2020</text>
@@ -907,47 +728,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{88BFEBBC-FE07-4C46-84FE-86AA3FD53D99}">
-    <text>July 15th, 2020</text>
-  </threadedComment>
-  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{E0C33859-F9C0-451D-98A5-FABAC43C6D15}">
-    <text>July 14th, 2020</text>
-  </threadedComment>
-  <threadedComment ref="A4" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{573E4A7D-65BD-4B7B-8EA7-63038693DCE5}">
-    <text>July 16th, 2020</text>
-  </threadedComment>
-  <threadedComment ref="A5" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{82E46766-03E0-4C14-91E7-11DC23E1FE80}">
-    <text>July 13th, 2020</text>
-  </threadedComment>
-  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{1E55EEEE-BA79-4195-8A1D-45154C4DDDB5}">
-    <text>July 17th, 2020</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{97A80AF1-EB1F-487E-9F7D-386A15F551BB}">
-    <text>July 15th, 2020</text>
-  </threadedComment>
-  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{D9D923E9-03D3-4E55-A423-85BC7113D1FE}">
-    <text>July 14th, 2020</text>
-  </threadedComment>
-  <threadedComment ref="A4" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{55C4C18D-BEA0-4078-A744-9715D0BAE80C}">
-    <text>July 16th, 2020</text>
-  </threadedComment>
-  <threadedComment ref="A5" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{AB80A1C6-22EB-4F45-A615-0442EDDE4748}">
-    <text>July 13th, 2020</text>
-  </threadedComment>
-  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{062A73CD-E3CE-45A0-B30F-C084FCAF6E8B}">
-    <text>July 17th, 2020</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{54B6800D-CAED-4CE6-9DA8-8CFBEE3BBD62}">
     <text>July 15th, 2020</text>
@@ -967,7 +748,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{E4229DCD-9BFC-4BD1-AD9E-DABD22B6781C}">
     <text>July 15th, 2020</text>
@@ -991,16 +772,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1016,7 +797,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1024,7 +805,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +813,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +821,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
     </row>
   </sheetData>
@@ -1049,16 +830,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA05D27-2923-4356-8892-D5CC7369F4B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA05D27-2923-4356-8892-D5CC7369F4B4}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,488 +916,341 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>178.51022176578198</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
-        <v>170.09531756474857</v>
+        <v>25.9</v>
       </c>
       <c r="D2" s="2">
-        <v>166.56503738887642</v>
+        <v>25.8</v>
       </c>
       <c r="E2" s="2">
-        <v>161.7510189672326</v>
+        <v>25.8</v>
       </c>
       <c r="F2" s="2">
-        <v>163.35569177444719</v>
+        <v>25.6</v>
       </c>
       <c r="G2" s="2">
-        <v>170.26862222792772</v>
+        <v>25.6</v>
       </c>
       <c r="H2" s="2">
-        <v>184.75560833146122</v>
+        <v>24.83</v>
       </c>
       <c r="I2" s="2">
-        <v>191.65570140248403</v>
+        <v>24.83</v>
       </c>
       <c r="J2" s="2">
-        <v>200</v>
+        <v>24.83</v>
       </c>
       <c r="K2" s="2">
-        <v>189.62739497416479</v>
+        <v>24.5</v>
       </c>
       <c r="L2" s="2">
-        <v>185.32045315960079</v>
+        <v>24.5</v>
       </c>
       <c r="M2" s="2">
-        <v>168.31092140312595</v>
+        <v>24.83</v>
       </c>
       <c r="N2" s="2">
-        <v>163.65095157097468</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>139.86328187682534</v>
+        <v>25.6</v>
       </c>
       <c r="P2" s="2">
-        <v>145.51173015822073</v>
+        <v>25.43</v>
       </c>
       <c r="Q2" s="2">
-        <v>131.94903559164285</v>
+        <v>24</v>
       </c>
       <c r="R2" s="2">
-        <v>128.37382457716873</v>
+        <v>22.1</v>
       </c>
       <c r="S2" s="2">
-        <v>127.69344330690973</v>
+        <v>21.4</v>
       </c>
       <c r="T2" s="2">
-        <v>129.37514040887064</v>
+        <v>24.83</v>
       </c>
       <c r="U2" s="2">
-        <v>146.94309830225617</v>
+        <v>25.2</v>
       </c>
       <c r="V2" s="2">
-        <v>178.09942552713505</v>
+        <v>25.6</v>
       </c>
       <c r="W2" s="2">
-        <v>177.86193395166728</v>
+        <v>29.93</v>
       </c>
       <c r="X2" s="2">
-        <v>168.41362046278766</v>
+        <v>32.93</v>
       </c>
       <c r="Y2" s="2">
-        <v>160.20411438107772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>B2*0.95</f>
-        <v>169.58471067749286</v>
+        <v>31.35</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:Y3" si="0">C2*0.95</f>
-        <v>161.59055168651113</v>
+        <v>27.68</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>158.2367855194326</v>
+        <v>26.73</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>153.66346801887096</v>
+        <v>26.51</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>155.18790718572484</v>
+        <v>26.54</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="0"/>
-        <v>161.75519111653134</v>
+        <v>27.59</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="0"/>
-        <v>175.51782791488816</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="0"/>
-        <v>182.07291633235982</v>
+        <v>38.19</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
-        <v>180.14602522545653</v>
+        <v>38.43</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="0"/>
-        <v>176.05443050162074</v>
+        <v>38.24</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="0"/>
-        <v>159.89537533296965</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="0"/>
-        <v>155.46840399242595</v>
+        <v>38.43</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" si="0"/>
-        <v>132.87011778298407</v>
+        <v>38.47</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" si="0"/>
-        <v>138.23614365030969</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" si="0"/>
-        <v>125.35158381206071</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" si="0"/>
-        <v>121.95513334831028</v>
+        <v>38.43</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" si="0"/>
-        <v>121.30877114156424</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" si="0"/>
-        <v>122.9063833884271</v>
+        <v>40.51</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" si="0"/>
-        <v>139.59594338714336</v>
+        <v>42.93</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" si="0"/>
-        <v>169.19445425077831</v>
+        <v>41.81</v>
       </c>
       <c r="W3" s="2">
-        <f t="shared" si="0"/>
-        <v>168.96883725408392</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" si="0"/>
-        <v>159.99293943964827</v>
+        <v>39.72</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" si="0"/>
-        <v>152.19390866202383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37.950000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>B2*1.05</f>
-        <v>187.43573285407109</v>
+        <v>33.159999999999997</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:Y4" si="1">C2*1.05</f>
-        <v>178.600083442986</v>
+        <v>28.6</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="1"/>
-        <v>174.89328925832024</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>169.83856991559423</v>
+        <v>26.5</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>171.52347636316955</v>
+        <v>27.5</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>178.78205333932411</v>
+        <v>28.03</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>193.99338874803428</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="1"/>
-        <v>201.23848647260823</v>
+        <v>37.74</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="1"/>
-        <v>210</v>
+        <v>39.79</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="1"/>
-        <v>199.10876472287305</v>
+        <v>40.49</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="1"/>
-        <v>194.58647581758083</v>
+        <v>39.82</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="1"/>
-        <v>176.72646747328224</v>
+        <v>38.08</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="1"/>
-        <v>171.83349914952342</v>
+        <v>37.21</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="1"/>
-        <v>146.85644597066661</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="1"/>
-        <v>152.78731666613177</v>
+        <v>33.18</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="1"/>
-        <v>138.546487371225</v>
+        <v>30</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="1"/>
-        <v>134.79251580602718</v>
+        <v>29</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="1"/>
-        <v>134.07811547225521</v>
+        <v>30.22</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="1"/>
-        <v>135.84389742931418</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="1"/>
-        <v>154.29025321736898</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="1"/>
-        <v>187.0043968034918</v>
+        <v>41.7</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="1"/>
-        <v>186.75503064925064</v>
+        <v>43.82</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="1"/>
-        <v>176.83430148592706</v>
+        <v>42.23</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="1"/>
-        <v>168.2143201001316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f>B2*0.9</f>
-        <v>160.65919958920378</v>
+        <v>39.9</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:Y5" si="2">C2*0.9</f>
-        <v>153.08578580827373</v>
+        <v>38.24</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="2"/>
-        <v>149.90853364998878</v>
+        <v>35.44</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
-        <v>145.57591707050935</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>147.02012259700248</v>
+        <v>34.15</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
-        <v>153.24176000513495</v>
+        <v>34.03</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
-        <v>166.2800474983151</v>
+        <v>34.31</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="2"/>
-        <v>172.49013126223562</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>39.76</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="2"/>
-        <v>170.66465547674832</v>
+        <v>40.39</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="2"/>
-        <v>166.78840784364073</v>
+        <v>40.29</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="2"/>
-        <v>151.47982926281335</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="2"/>
-        <v>147.28585641387721</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="2"/>
-        <v>125.87695368914281</v>
+        <v>36.97</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="2"/>
-        <v>130.96055714239867</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="2"/>
-        <v>118.75413203247857</v>
+        <v>34.5</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="2"/>
-        <v>115.53644211945186</v>
+        <v>34.4</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="2"/>
-        <v>114.92409897621876</v>
+        <v>35.24</v>
       </c>
       <c r="T5" s="2">
-        <f t="shared" si="2"/>
-        <v>116.43762636798357</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="U5" s="2">
-        <f t="shared" si="2"/>
-        <v>132.24878847203055</v>
+        <v>51.02</v>
       </c>
       <c r="V5" s="2">
-        <f t="shared" si="2"/>
-        <v>160.28948297442156</v>
+        <v>51.05</v>
       </c>
       <c r="W5" s="2">
-        <f t="shared" si="2"/>
-        <v>160.07574055650056</v>
+        <v>50.04</v>
       </c>
       <c r="X5" s="2">
-        <f t="shared" si="2"/>
-        <v>151.5722584165089</v>
+        <v>46.51</v>
       </c>
       <c r="Y5" s="2">
-        <f t="shared" si="2"/>
-        <v>144.18370294296994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <f>B2*1.1</f>
-        <v>196.3612439423602</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:Y6" si="3">C2*1.1</f>
-        <v>187.10484932122344</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="3"/>
-        <v>183.22154112776408</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="3"/>
-        <v>177.92612086395587</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="3"/>
-        <v>179.69126095189193</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>187.29548445072052</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="3"/>
-        <v>203.23116916460737</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="3"/>
-        <v>210.82127154273243</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="3"/>
-        <v>220.00000000000003</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="3"/>
-        <v>208.59013447158128</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="3"/>
-        <v>203.85249847556088</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="3"/>
-        <v>185.14201354343857</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="3"/>
-        <v>180.01604672807215</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="3"/>
-        <v>153.84961006450789</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="3"/>
-        <v>160.06290317404282</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="3"/>
-        <v>145.14393915080714</v>
-      </c>
-      <c r="R6" s="2">
-        <f t="shared" si="3"/>
-        <v>141.21120703488563</v>
-      </c>
-      <c r="S6" s="2">
-        <f t="shared" si="3"/>
-        <v>140.46278763760071</v>
-      </c>
-      <c r="T6" s="2">
-        <f t="shared" si="3"/>
-        <v>142.3126544497577</v>
-      </c>
-      <c r="U6" s="2">
-        <f t="shared" si="3"/>
-        <v>161.6374081324818</v>
-      </c>
-      <c r="V6" s="2">
-        <f t="shared" si="3"/>
-        <v>195.90936807984858</v>
-      </c>
-      <c r="W6" s="2">
-        <f t="shared" si="3"/>
-        <v>195.64812734683403</v>
-      </c>
-      <c r="X6" s="2">
-        <f t="shared" si="3"/>
-        <v>185.25498250906645</v>
-      </c>
-      <c r="Y6" s="2">
-        <f t="shared" si="3"/>
-        <v>176.22452581918552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+        <v>40.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1645,7 +1279,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1654,12 +1287,12 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y6"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1813,7 +1446,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1914,7 +1547,7 @@
         <v>33.44</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2015,7 +1648,7 @@
         <v>36.960000000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2116,7 +1749,7 @@
         <v>31.680000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2229,12 +1862,12 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y6"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +1944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2388,7 +2021,7 @@
         <v>176.22452581918552</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2489,7 +2122,7 @@
         <v>167.41329952822622</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2590,7 +2223,7 @@
         <v>185.03575211014481</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2691,7 +2324,7 @@
         <v>158.60207323726698</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2803,12 +2436,12 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2885,7 +2518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2962,7 +2595,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3063,7 +2696,7 @@
         <v>136.97451779582144</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3164,7 +2797,7 @@
         <v>151.39288809011845</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3265,7 +2898,7 @@
         <v>129.76533264867297</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3373,16 +3006,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8148E-B092-4250-B42C-B4D8265B477C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8148E-B092-4250-B42C-B4D8265B477C}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y6"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3459,488 +3092,290 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>178.51022176578198</v>
+        <v>31.35</v>
       </c>
       <c r="C2" s="2">
-        <v>170.09531756474857</v>
+        <v>27.68</v>
       </c>
       <c r="D2" s="2">
-        <v>166.56503738887642</v>
+        <v>26.73</v>
       </c>
       <c r="E2" s="2">
-        <v>161.7510189672326</v>
+        <v>26.51</v>
       </c>
       <c r="F2" s="2">
-        <v>163.35569177444719</v>
+        <v>26.54</v>
       </c>
       <c r="G2" s="2">
-        <v>170.26862222792772</v>
+        <v>27.59</v>
       </c>
       <c r="H2" s="2">
-        <v>184.75560833146122</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I2" s="2">
-        <v>191.65570140248403</v>
+        <v>38.19</v>
       </c>
       <c r="J2" s="2">
-        <v>200</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="K2" s="2">
-        <v>189.62739497416479</v>
+        <v>38.43</v>
       </c>
       <c r="L2" s="2">
-        <v>185.32045315960079</v>
+        <v>38.24</v>
       </c>
       <c r="M2" s="2">
-        <v>168.31092140312595</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2">
-        <v>163.65095157097468</v>
+        <v>38.43</v>
       </c>
       <c r="O2" s="2">
-        <v>139.86328187682534</v>
+        <v>38.47</v>
       </c>
       <c r="P2" s="2">
-        <v>145.51173015822073</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="Q2" s="2">
-        <v>131.94903559164285</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="R2" s="2">
-        <v>128.37382457716873</v>
+        <v>38.43</v>
       </c>
       <c r="S2" s="2">
-        <v>127.69344330690973</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="T2" s="2">
-        <v>129.37514040887064</v>
+        <v>40.51</v>
       </c>
       <c r="U2" s="2">
-        <v>146.94309830225617</v>
+        <v>42.93</v>
       </c>
       <c r="V2" s="2">
-        <v>178.09942552713505</v>
+        <v>41.81</v>
       </c>
       <c r="W2" s="2">
-        <v>177.86193395166728</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="X2" s="2">
-        <v>168.41362046278766</v>
+        <v>39.72</v>
       </c>
       <c r="Y2" s="2">
-        <v>160.20411438107772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37.950000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>B2*0.95</f>
-        <v>169.58471067749286</v>
+        <v>33.159999999999997</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:Y3" si="0">C2*0.95</f>
-        <v>161.59055168651113</v>
+        <v>28.6</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>158.2367855194326</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>153.66346801887096</v>
+        <v>26.5</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>155.18790718572484</v>
+        <v>27.5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="0"/>
-        <v>161.75519111653134</v>
+        <v>28.03</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="0"/>
-        <v>175.51782791488816</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="0"/>
-        <v>182.07291633235982</v>
+        <v>37.74</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <v>39.79</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
-        <v>180.14602522545653</v>
+        <v>40.49</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="0"/>
-        <v>176.05443050162074</v>
+        <v>39.82</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="0"/>
-        <v>159.89537533296965</v>
+        <v>38.08</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="0"/>
-        <v>155.46840399242595</v>
+        <v>37.21</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" si="0"/>
-        <v>132.87011778298407</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" si="0"/>
-        <v>138.23614365030969</v>
+        <v>33.18</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" si="0"/>
-        <v>125.35158381206071</v>
+        <v>30</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" si="0"/>
-        <v>121.95513334831028</v>
+        <v>29</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" si="0"/>
-        <v>121.30877114156424</v>
+        <v>30.22</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" si="0"/>
-        <v>122.9063833884271</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" si="0"/>
-        <v>139.59594338714336</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" si="0"/>
-        <v>169.19445425077831</v>
+        <v>41.7</v>
       </c>
       <c r="W3" s="2">
-        <f t="shared" si="0"/>
-        <v>168.96883725408392</v>
+        <v>43.82</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" si="0"/>
-        <v>159.99293943964827</v>
+        <v>42.23</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" si="0"/>
-        <v>152.19390866202383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>B2*1.05</f>
-        <v>187.43573285407109</v>
+        <v>39.9</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:Y4" si="1">C2*1.05</f>
-        <v>178.600083442986</v>
+        <v>38.24</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="1"/>
-        <v>174.89328925832024</v>
+        <v>35.44</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>169.83856991559423</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>171.52347636316955</v>
+        <v>34.15</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>178.78205333932411</v>
+        <v>34.03</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>193.99338874803428</v>
+        <v>34.31</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="1"/>
-        <v>201.23848647260823</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="1"/>
-        <v>210</v>
+        <v>39.76</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="1"/>
-        <v>199.10876472287305</v>
+        <v>40.39</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="1"/>
-        <v>194.58647581758083</v>
+        <v>40.29</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="1"/>
-        <v>176.72646747328224</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="1"/>
-        <v>171.83349914952342</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="1"/>
-        <v>146.85644597066661</v>
+        <v>36.97</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="1"/>
-        <v>152.78731666613177</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="1"/>
-        <v>138.546487371225</v>
+        <v>34.5</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="1"/>
-        <v>134.79251580602718</v>
+        <v>34.4</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="1"/>
-        <v>134.07811547225521</v>
+        <v>35.24</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="1"/>
-        <v>135.84389742931418</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="1"/>
-        <v>154.29025321736898</v>
+        <v>51.02</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="1"/>
-        <v>187.0043968034918</v>
+        <v>51.05</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="1"/>
-        <v>186.75503064925064</v>
+        <v>50.04</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="1"/>
-        <v>176.83430148592706</v>
+        <v>46.51</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="1"/>
-        <v>168.2143201001316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <f>B2*0.9</f>
-        <v>160.65919958920378</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:Y5" si="2">C2*0.9</f>
-        <v>153.08578580827373</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="2"/>
-        <v>149.90853364998878</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="2"/>
-        <v>145.57591707050935</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>147.02012259700248</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="2"/>
-        <v>153.24176000513495</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="2"/>
-        <v>166.2800474983151</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="2"/>
-        <v>172.49013126223562</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="2"/>
-        <v>170.66465547674832</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="2"/>
-        <v>166.78840784364073</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="2"/>
-        <v>151.47982926281335</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" si="2"/>
-        <v>147.28585641387721</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" si="2"/>
-        <v>125.87695368914281</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" si="2"/>
-        <v>130.96055714239867</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" si="2"/>
-        <v>118.75413203247857</v>
-      </c>
-      <c r="R5" s="2">
-        <f t="shared" si="2"/>
-        <v>115.53644211945186</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" si="2"/>
-        <v>114.92409897621876</v>
-      </c>
-      <c r="T5" s="2">
-        <f t="shared" si="2"/>
-        <v>116.43762636798357</v>
-      </c>
-      <c r="U5" s="2">
-        <f t="shared" si="2"/>
-        <v>132.24878847203055</v>
-      </c>
-      <c r="V5" s="2">
-        <f t="shared" si="2"/>
-        <v>160.28948297442156</v>
-      </c>
-      <c r="W5" s="2">
-        <f t="shared" si="2"/>
-        <v>160.07574055650056</v>
-      </c>
-      <c r="X5" s="2">
-        <f t="shared" si="2"/>
-        <v>151.5722584165089</v>
-      </c>
-      <c r="Y5" s="2">
-        <f t="shared" si="2"/>
-        <v>144.18370294296994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <f>B2*1.1</f>
-        <v>196.3612439423602</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:Y6" si="3">C2*1.1</f>
-        <v>187.10484932122344</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="3"/>
-        <v>183.22154112776408</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="3"/>
-        <v>177.92612086395587</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="3"/>
-        <v>179.69126095189193</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>187.29548445072052</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="3"/>
-        <v>203.23116916460737</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="3"/>
-        <v>210.82127154273243</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="3"/>
-        <v>220.00000000000003</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="3"/>
-        <v>208.59013447158128</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="3"/>
-        <v>203.85249847556088</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="3"/>
-        <v>185.14201354343857</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="3"/>
-        <v>180.01604672807215</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="3"/>
-        <v>153.84961006450789</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="3"/>
-        <v>160.06290317404282</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="3"/>
-        <v>145.14393915080714</v>
-      </c>
-      <c r="R6" s="2">
-        <f t="shared" si="3"/>
-        <v>141.21120703488563</v>
-      </c>
-      <c r="S6" s="2">
-        <f t="shared" si="3"/>
-        <v>140.46278763760071</v>
-      </c>
-      <c r="T6" s="2">
-        <f t="shared" si="3"/>
-        <v>142.3126544497577</v>
-      </c>
-      <c r="U6" s="2">
-        <f t="shared" si="3"/>
-        <v>161.6374081324818</v>
-      </c>
-      <c r="V6" s="2">
-        <f t="shared" si="3"/>
-        <v>195.90936807984858</v>
-      </c>
-      <c r="W6" s="2">
-        <f t="shared" si="3"/>
-        <v>195.64812734683403</v>
-      </c>
-      <c r="X6" s="2">
-        <f t="shared" si="3"/>
-        <v>185.25498250906645</v>
-      </c>
-      <c r="Y6" s="2">
-        <f t="shared" si="3"/>
-        <v>176.22452581918552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+        <v>40.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3969,21 +3404,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514FB8F9-B431-4FC3-A01F-C31ABBD1F26D}">
-  <dimension ref="A1:Y7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514FB8F9-B431-4FC3-A01F-C31ABBD1F26D}">
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4060,517 +3494,266 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>35.702044353156396</v>
+        <v>13.5</v>
       </c>
       <c r="C2" s="2">
-        <v>35.702044353156396</v>
+        <v>14.88</v>
       </c>
       <c r="D2" s="2">
-        <v>36</v>
+        <v>8.92</v>
       </c>
       <c r="E2" s="2">
-        <v>36.4</v>
+        <v>8.93</v>
       </c>
       <c r="F2" s="2">
-        <v>35.702044353156396</v>
+        <v>8.93</v>
       </c>
       <c r="G2" s="2">
-        <v>40</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="H2" s="2">
-        <v>36.4</v>
+        <v>12.54</v>
       </c>
       <c r="I2" s="2">
-        <v>35.6</v>
+        <v>10.18</v>
       </c>
       <c r="J2" s="2">
-        <v>34.4</v>
+        <v>10.37</v>
       </c>
       <c r="K2" s="2">
-        <v>33.6</v>
+        <v>9.5</v>
       </c>
       <c r="L2" s="2">
-        <v>32.799999999999997</v>
+        <v>7.29</v>
       </c>
       <c r="M2" s="2">
-        <v>32</v>
+        <v>7.76</v>
       </c>
       <c r="N2" s="2">
-        <v>32.400000000000006</v>
+        <v>8.52</v>
       </c>
       <c r="O2" s="2">
-        <v>32.799999999999997</v>
+        <v>7.91</v>
       </c>
       <c r="P2" s="2">
-        <v>33.199999999999996</v>
+        <v>7.86</v>
       </c>
       <c r="Q2" s="2">
-        <v>33.6</v>
+        <v>7.35</v>
       </c>
       <c r="R2" s="2">
-        <v>33.199999999999996</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="S2" s="2">
-        <v>33.6</v>
+        <v>7.44</v>
       </c>
       <c r="T2" s="2">
-        <v>33.199999999999996</v>
+        <v>4.84</v>
       </c>
       <c r="U2" s="2">
-        <v>33.6</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="V2" s="2">
-        <v>33.199999999999996</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="W2" s="2">
-        <v>32.799999999999997</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X2" s="2">
-        <v>34</v>
+        <v>8.4</v>
       </c>
       <c r="Y2" s="2">
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>B2*0.95</f>
-        <v>33.916942135498573</v>
+        <v>10.64</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:Y3" si="0">C2*0.95</f>
-        <v>33.916942135498573</v>
+        <v>9.02</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>34.199999999999996</v>
+        <v>5.51</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>34.58</v>
+        <v>5.7</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>33.916942135498573</v>
+        <v>5.68</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <v>5.7</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="0"/>
-        <v>34.58</v>
+        <v>11.33</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="0"/>
-        <v>33.82</v>
+        <v>5.98</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="0"/>
-        <v>32.68</v>
+        <v>8.57</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.919999999999998</v>
+        <v>4.71</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.159999999999997</v>
+        <v>9.1</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="0"/>
-        <v>30.4</v>
+        <v>7.08</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="0"/>
-        <v>30.780000000000005</v>
+        <v>7.32</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.159999999999997</v>
+        <v>5.7</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.539999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.919999999999998</v>
+        <v>4.84</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.539999999999996</v>
+        <v>4.88</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.919999999999998</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.539999999999996</v>
+        <v>5.68</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.919999999999998</v>
+        <v>4.75</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.539999999999996</v>
+        <v>3.85</v>
       </c>
       <c r="W3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.159999999999997</v>
+        <v>5.6</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" si="0"/>
-        <v>32.299999999999997</v>
+        <v>6.65</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" si="0"/>
-        <v>33.44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>B2*1.05</f>
-        <v>37.487146570814218</v>
+        <v>6.17</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:Y4" si="1">C2*1.05</f>
-        <v>37.487146570814218</v>
+        <v>7.51</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="1"/>
-        <v>37.800000000000004</v>
+        <v>7.6</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>38.22</v>
+        <v>7.89</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>37.487146570814218</v>
+        <v>7.98</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <v>8.44</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>38.22</v>
+        <v>7.6</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="1"/>
-        <v>37.380000000000003</v>
+        <v>7.34</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="1"/>
-        <v>36.119999999999997</v>
+        <v>6.54</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="1"/>
-        <v>35.28</v>
+        <v>7.6</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="1"/>
-        <v>34.44</v>
+        <v>8.44</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="1"/>
-        <v>33.6</v>
+        <v>6.49</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="1"/>
-        <v>34.02000000000001</v>
+        <v>6.44</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="1"/>
-        <v>34.44</v>
+        <v>6.54</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="1"/>
-        <v>34.86</v>
+        <v>7.6</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="1"/>
-        <v>35.28</v>
+        <v>7.6</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="1"/>
-        <v>34.86</v>
+        <v>7.6</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="1"/>
-        <v>35.28</v>
+        <v>7.6</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="1"/>
-        <v>34.86</v>
+        <v>5.78</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="1"/>
-        <v>35.28</v>
+        <v>1.5</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="1"/>
-        <v>34.86</v>
+        <v>3.8</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="1"/>
-        <v>34.44</v>
+        <v>4.18</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="1"/>
-        <v>35.700000000000003</v>
+        <v>4.28</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="1"/>
-        <v>36.960000000000008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <f>B2*0.9</f>
-        <v>32.131839917840757</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:Y5" si="2">C2*0.9</f>
-        <v>32.131839917840757</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="2"/>
-        <v>32.4</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="2"/>
-        <v>32.76</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>32.131839917840757</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="2"/>
-        <v>32.76</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="2"/>
-        <v>32.04</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="2"/>
-        <v>30.96</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="2"/>
-        <v>30.240000000000002</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="2"/>
-        <v>29.52</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="2"/>
-        <v>28.8</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" si="2"/>
-        <v>29.160000000000007</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" si="2"/>
-        <v>29.52</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" si="2"/>
-        <v>29.879999999999995</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" si="2"/>
-        <v>30.240000000000002</v>
-      </c>
-      <c r="R5" s="2">
-        <f t="shared" si="2"/>
-        <v>29.879999999999995</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" si="2"/>
-        <v>30.240000000000002</v>
-      </c>
-      <c r="T5" s="2">
-        <f t="shared" si="2"/>
-        <v>29.879999999999995</v>
-      </c>
-      <c r="U5" s="2">
-        <f t="shared" si="2"/>
-        <v>30.240000000000002</v>
-      </c>
-      <c r="V5" s="2">
-        <f t="shared" si="2"/>
-        <v>29.879999999999995</v>
-      </c>
-      <c r="W5" s="2">
-        <f t="shared" si="2"/>
-        <v>29.52</v>
-      </c>
-      <c r="X5" s="2">
-        <f t="shared" si="2"/>
-        <v>30.6</v>
-      </c>
-      <c r="Y5" s="2">
-        <f t="shared" si="2"/>
-        <v>31.680000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <f>B2*1.1</f>
-        <v>39.272248788472041</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:Y6" si="3">C2*1.1</f>
-        <v>39.272248788472041</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="3"/>
-        <v>39.6</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="3"/>
-        <v>40.04</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="3"/>
-        <v>39.272248788472041</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="3"/>
-        <v>40.04</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="3"/>
-        <v>39.160000000000004</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="3"/>
-        <v>37.840000000000003</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="3"/>
-        <v>36.960000000000008</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="3"/>
-        <v>36.08</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="3"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="3"/>
-        <v>35.640000000000008</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="3"/>
-        <v>36.08</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="3"/>
-        <v>36.519999999999996</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="3"/>
-        <v>36.960000000000008</v>
-      </c>
-      <c r="R6" s="2">
-        <f t="shared" si="3"/>
-        <v>36.519999999999996</v>
-      </c>
-      <c r="S6" s="2">
-        <f t="shared" si="3"/>
-        <v>36.960000000000008</v>
-      </c>
-      <c r="T6" s="2">
-        <f t="shared" si="3"/>
-        <v>36.519999999999996</v>
-      </c>
-      <c r="U6" s="2">
-        <f t="shared" si="3"/>
-        <v>36.960000000000008</v>
-      </c>
-      <c r="V6" s="2">
-        <f t="shared" si="3"/>
-        <v>36.519999999999996</v>
-      </c>
-      <c r="W6" s="2">
-        <f t="shared" si="3"/>
-        <v>36.08</v>
-      </c>
-      <c r="X6" s="2">
-        <f t="shared" si="3"/>
-        <v>37.400000000000006</v>
-      </c>
-      <c r="Y6" s="2">
-        <f t="shared" si="3"/>
-        <v>38.720000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4582,9 +3765,9 @@
       <selection activeCell="B3" sqref="B3:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4661,7 +3844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4738,7 +3921,7 @@
         <v>176.22452581918552</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4839,7 +4022,7 @@
         <v>167.41329952822622</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4940,7 +4123,7 @@
         <v>185.03575211014481</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5041,7 +4224,7 @@
         <v>158.60207323726698</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5156,9 +4339,9 @@
       <selection activeCell="B3" sqref="B3:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5235,7 +4418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5312,7 +4495,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5413,7 +4596,7 @@
         <v>136.97451779582144</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5514,7 +4697,7 @@
         <v>151.39288809011845</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5615,7 +4798,7 @@
         <v>129.76533264867297</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
